--- a/Team-Data/2011-12/3-17-2011-12.xlsx
+++ b/Team-Data/2011-12/3-17-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
@@ -795,19 +862,19 @@
         <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -819,7 +886,7 @@
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0.523</v>
+        <v>0.535</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -872,34 +939,34 @@
         <v>0.456</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
         <v>15.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="O3" t="n">
         <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="U3" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
@@ -923,22 +990,22 @@
         <v>91.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>22</v>
@@ -959,28 +1026,28 @@
         <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.163</v>
+        <v>0.143</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
@@ -1048,49 +1115,49 @@
         <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="L4" t="n">
         <v>4.2</v>
       </c>
       <c r="M4" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
       <c r="O4" t="n">
-        <v>16.2</v>
+        <v>15.8</v>
       </c>
       <c r="P4" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
@@ -1099,16 +1166,16 @@
         <v>19.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.8</v>
+        <v>-13.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1141,7 +1208,7 @@
         <v>30</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1156,28 +1223,28 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.787</v>
+        <v>0.783</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P5" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
         <v>13.7</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U5" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
@@ -1275,16 +1342,16 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>8.6</v>
@@ -1326,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1341,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1350,10 +1417,10 @@
         <v>23</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1484,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>16</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,7 +1581,7 @@
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>23</v>
@@ -1523,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,46 +1661,46 @@
         <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M7" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="O7" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U7" t="n">
         <v>21.4</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
@@ -1642,16 +1709,16 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1660,13 +1727,13 @@
         <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
@@ -1687,7 +1754,7 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1699,16 +1766,16 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1720,13 +1787,13 @@
         <v>3</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.556</v>
+        <v>0.545</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.467</v>
@@ -1788,37 +1855,37 @@
         <v>20.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O8" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P8" t="n">
         <v>28.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
         <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.6</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>6.5</v>
@@ -1830,22 +1897,22 @@
         <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>4</v>
@@ -1890,13 +1957,13 @@
         <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2036,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2066,13 +2133,13 @@
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>26</v>
@@ -2084,10 +2151,10 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.429</v>
+        <v>0.439</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R10" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
         <v>40.1</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="V10" t="n">
         <v>14.2</v>
@@ -2185,7 +2252,7 @@
         <v>5.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
         <v>22</v>
@@ -2194,25 +2261,25 @@
         <v>17.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2227,10 +2294,10 @@
         <v>4</v>
       </c>
       <c r="AM10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
         <v>27</v>
@@ -2239,13 +2306,13 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2263,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.533</v>
+        <v>0.545</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
@@ -2322,7 +2389,7 @@
         <v>37.6</v>
       </c>
       <c r="J11" t="n">
-        <v>82.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.453</v>
@@ -2334,7 +2401,7 @@
         <v>19.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O11" t="n">
         <v>15.7</v>
@@ -2343,22 +2410,22 @@
         <v>19.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R11" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S11" t="n">
         <v>30.4</v>
       </c>
       <c r="T11" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U11" t="n">
         <v>20.8</v>
       </c>
       <c r="V11" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,52 +2437,52 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA11" t="n">
         <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="AF11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
       <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>6</v>
       </c>
-      <c r="AI11" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2430,31 +2497,31 @@
         <v>18</v>
       </c>
       <c r="AT11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2553,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
         <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.581</v>
+        <v>0.595</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J12" t="n">
         <v>80.90000000000001</v>
@@ -2513,10 +2580,10 @@
         <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
         <v>20.1</v>
@@ -2525,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
@@ -2537,13 +2604,13 @@
         <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="V12" t="n">
         <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
         <v>5.3</v>
@@ -2552,22 +2619,22 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>7</v>
@@ -2576,10 +2643,10 @@
         <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
         <v>20</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,10 +2670,10 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR12" t="n">
         <v>7</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2618,10 +2685,10 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2639,7 +2706,7 @@
         <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,22 +2753,22 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
         <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P13" t="n">
         <v>24</v>
@@ -2710,61 +2777,61 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T13" t="n">
         <v>42.8</v>
       </c>
       <c r="U13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>13.6</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF13" t="n">
         <v>8</v>
       </c>
-      <c r="AF13" t="n">
-        <v>7</v>
-      </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2788,28 +2855,28 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2818,10 +2885,10 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2949,7 +3016,7 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -3003,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="BC14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3158,7 +3225,7 @@
         <v>21</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3179,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3334,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
         <v>21</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>27</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3531,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,13 +3607,13 @@
         <v>13</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3665,10 +3732,10 @@
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -3710,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="n">
         <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.326</v>
+        <v>0.333</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,7 +3845,7 @@
         <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.426</v>
@@ -3787,28 +3854,28 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O19" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P19" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R19" t="n">
         <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U19" t="n">
         <v>19.6</v>
@@ -3820,19 +3887,19 @@
         <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y19" t="n">
         <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-6.2</v>
@@ -3856,13 +3923,13 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
@@ -3874,7 +3941,7 @@
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
@@ -3904,10 +3971,10 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.244</v>
+        <v>0.227</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J20" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.324</v>
+        <v>0.319</v>
       </c>
       <c r="O20" t="n">
         <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T20" t="n">
         <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
         <v>15.3</v>
@@ -4005,22 +4072,22 @@
         <v>4.6</v>
       </c>
       <c r="Y20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="AD20" t="n">
         <v>6</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>88.8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4029,13 +4096,13 @@
         <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4071,10 +4138,10 @@
         <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.467</v>
+        <v>0.455</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J21" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>7.2</v>
@@ -4154,13 +4221,13 @@
         <v>22.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O21" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
         <v>0.75</v>
@@ -4172,13 +4239,13 @@
         <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W21" t="n">
         <v>9.6</v>
@@ -4196,31 +4263,31 @@
         <v>22.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4250,10 +4317,10 @@
         <v>15</v>
       </c>
       <c r="AT21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>9</v>
       </c>
       <c r="BC21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4402,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,10 +4645,10 @@
         <v>5</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP23" t="n">
         <v>9</v>
@@ -4614,10 +4681,10 @@
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
@@ -4638,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -4670,40 +4737,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="n">
         <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M24" t="n">
         <v>15.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O24" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="P24" t="n">
         <v>18.3</v>
@@ -4712,58 +4779,58 @@
         <v>0.735</v>
       </c>
       <c r="R24" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T24" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="W24" t="n">
         <v>8.6</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
         <v>3</v>
@@ -4772,7 +4839,7 @@
         <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>24</v>
@@ -4799,7 +4866,7 @@
         <v>6</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4811,10 +4878,10 @@
         <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
@@ -4969,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
@@ -5136,7 +5203,7 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
@@ -5157,10 +5224,10 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
         <v>15</v>
@@ -5172,7 +5239,7 @@
         <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5318,13 +5385,13 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>10</v>
@@ -5333,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,13 +5409,13 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU27" t="n">
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5360,7 +5427,7 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="n">
         <v>29</v>
       </c>
       <c r="F28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.674</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,67 +5483,67 @@
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.401</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.718</v>
+        <v>0.721</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U28" t="n">
         <v>22.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
         <v>100.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5488,34 +5555,34 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>8</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5533,19 +5600,19 @@
         <v>2</v>
       </c>
       <c r="AW28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX28" t="n">
         <v>25</v>
       </c>
-      <c r="AX28" t="n">
-        <v>26</v>
-      </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H29" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J29" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
         <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="O29" t="n">
         <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q29" t="n">
         <v>0.764</v>
@@ -5625,70 +5692,70 @@
         <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="AA29" t="n">
         <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>91</v>
+        <v>90.7</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>28</v>
       </c>
       <c r="AK29" t="n">
         <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5706,22 +5773,22 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>22</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J30" t="n">
-        <v>83.2</v>
+        <v>82.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
         <v>3.7</v>
@@ -5792,28 +5859,28 @@
         <v>12.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.306</v>
+        <v>0.31</v>
       </c>
       <c r="O30" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P30" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
       <c r="U30" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V30" t="n">
         <v>14</v>
@@ -5822,10 +5889,10 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z30" t="n">
         <v>22</v>
@@ -5837,28 +5904,28 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK30" t="n">
         <v>8</v>
@@ -5870,7 +5937,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,16 +5946,16 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
@@ -5906,13 +5973,13 @@
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6052,16 +6119,16 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
         <v>16</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6070,16 +6137,16 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-17-2011-12</t>
+          <t>2012-03-17</t>
         </is>
       </c>
     </row>
